--- a/flows/SDCI_fund_flow_data.xlsx
+++ b/flows/SDCI_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1463"/>
+  <dimension ref="A1:B1481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15065,6 +15065,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
